--- a/medicine/Enfance/Le_Sang_de_l'épouvanteur/Le_Sang_de_l'épouvanteur.xlsx
+++ b/medicine/Enfance/Le_Sang_de_l'épouvanteur/Le_Sang_de_l'épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Sang_de_l%27%C3%A9pouvanteur</t>
+          <t>Le_Sang_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Sang de l'épouvanteur (titre original : The Spook's Blood) est le dixième tome de la série L'Épouvanteur signée Joseph Delaney. Paru en 2012, il est précédé par Grimalkin et l'Épouvanteur et suivi par Le Pacte de Sliter.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Sang_de_l%27%C3%A9pouvanteur</t>
+          <t>Le_Sang_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Malin demeure entravé. Grimalkin, malgré les obstacles, est toujours en possession de sa tête. Furieux de sa situation, il avertit Tom: l'un de ses serviteurs les plus dangereux va bientôt s'éveiller.
 Dans ce 10e tome, Tom est amené à combattre Siscoï, le dieu Vampire, avec l’aide de Grimalkin, Alice, et un ancien apprenti de John Gregory, Judd Brinscall. Lors du combat ultime, Tom est averti par sa mère que seul lui est en mesure de vaincre Siscoï et de survivre. En effet, le dieu prend le dessus et va vaincre le jeune apprenti, mais il s’avère que son sang - celui du septième fils d’un septième fils et d’une lamia - est un poison mortel pour Siscoï.
